--- a/【河洛話注音】如夢令．昨夜雨疏風驟．李清照.xlsx
+++ b/【河洛話注音】如夢令．昨夜雨疏風驟．李清照.xlsx
@@ -8,12 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/python/poetry-tshu-im/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED878F30-E9FA-0D44-85C7-3F39FBDC8BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B71891-4F93-D740-99F3-9A02EA1B9B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1560" windowWidth="28540" windowHeight="17320" xr2:uid="{13BDD692-FEAE-D042-8B73-EE0C98DD7C07}"/>
+    <workbookView xWindow="-41160" yWindow="640" windowWidth="20020" windowHeight="17480" xr2:uid="{0CFD89CA-7529-2743-826A-66CC0462DCC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="閩拼拼音" sheetId="9" r:id="rId1"/>
+    <sheet name="台羅拼音" sheetId="8" r:id="rId2"/>
+    <sheet name="白話字拼音" sheetId="7" r:id="rId3"/>
+    <sheet name="方音符號注音" sheetId="6" r:id="rId4"/>
+    <sheet name="十五音注音" sheetId="5" r:id="rId5"/>
+    <sheet name="漢字注音表" sheetId="4" r:id="rId6"/>
+    <sheet name="字庫表" sheetId="3" r:id="rId7"/>
+    <sheet name="缺字表" sheetId="2" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,13 +44,872 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="273">
   <si>
     <t>昨夜雨疏風驟，濃睡不消殘酒。試問捲簾人，卻道海棠依舊。知否？知否？應是綠肥紅瘦。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《如夢令．昨夜雨疏風驟》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>夢</t>
+  </si>
+  <si>
+    <t>令</t>
+  </si>
+  <si>
+    <t>．</t>
+  </si>
+  <si>
+    <t>昨</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>疏</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>驟</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>濃</t>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>殘</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>試</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>捲</t>
+  </si>
+  <si>
+    <t>簾</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>卻</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>棠</t>
+  </si>
+  <si>
+    <t>依</t>
+  </si>
+  <si>
+    <t>舊</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>應</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>綠</t>
+  </si>
+  <si>
+    <t>肥</t>
+  </si>
+  <si>
+    <t>紅</t>
+  </si>
+  <si>
+    <t>瘦</t>
+  </si>
+  <si>
+    <t>ji5</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>bong7</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>ling7</t>
+  </si>
+  <si>
+    <t>tsok8</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>qia7</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>qi2</t>
+  </si>
+  <si>
+    <t>qi3</t>
+  </si>
+  <si>
+    <t>soo1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>hong1</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hong2</t>
+  </si>
+  <si>
+    <t>tsoo7</t>
+  </si>
+  <si>
+    <t>long5</t>
+  </si>
+  <si>
+    <t>sui3</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>hiu1</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>hoo2</t>
+  </si>
+  <si>
+    <t>hu1</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>siau1</t>
+  </si>
+  <si>
+    <t>iau</t>
+  </si>
+  <si>
+    <t>tsan5</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>tsiu2</t>
+  </si>
+  <si>
+    <t>si3</t>
+  </si>
+  <si>
+    <t>tshi3</t>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
+  <si>
+    <t>bun7</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>kuan2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>liam5</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>jin5</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>khiak4</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>iak</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>hai2</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>tong5</t>
+  </si>
+  <si>
+    <t>qi1</t>
+  </si>
+  <si>
+    <t>kiu7</t>
+  </si>
+  <si>
+    <t>ti1</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>phi2</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>qing1</t>
+  </si>
+  <si>
+    <t>qing3</t>
+  </si>
+  <si>
+    <t>si7</t>
+  </si>
+  <si>
+    <t>liok8</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t>hui5</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;．&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公八曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦七英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;沽七曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;睡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;規三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;嬌一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;殘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;干五曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;試&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;捲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀二求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;兼五柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;巾五入&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;姜四去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;皆二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;依&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩七求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居一地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;應&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經一英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居七時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;規五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;紅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='zhu_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;．&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆦ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;睡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;殘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;試&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;捲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㄚㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;依&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;應&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;紅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cho̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; īa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;so͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chō͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;睡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sùi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siau&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;殘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;試&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;捲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîam&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jîn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khiak&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tō&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hái&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;依&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; i&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kīu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;應&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; eng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hûi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;紅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tso̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;soo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;殘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsíu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;捲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kúan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;應&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ing&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;昨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zók&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;睡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;suì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;būt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;消&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sīao&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;殘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbûn&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;捲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gǔan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;簾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líam&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zzín&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kīak&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dô&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;海&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǎi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;依&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;giû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;應&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;yīng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;是&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;líok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;肥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;紅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt; ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt; ú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;wǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>qu2</t>
+  </si>
+  <si>
+    <t>hiu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經七柳&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lēng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;līng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>siu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sìu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siù&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Heiti TC Light"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瘦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Heiti TC Light"/>
+        <charset val="136"/>
+      </rPr>
+      <t>丩三時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -65,6 +932,18 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Heiti TC Light"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="黒体-繁"/>
@@ -75,6 +954,13 @@
       <sz val="28"/>
       <color theme="1"/>
       <name val="Heiti TC Light"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -100,14 +986,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,10 +1315,2945 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D41AA-0AA0-5246-B043-190A62290258}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B66AACE-7733-2644-95DE-CE81FAD2D1E2}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08486B52-EE07-0443-833B-79DBA2EDDDC7}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2069BA1-0892-6C4D-AD77-9D2CD1F3570A}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D485F-088F-984C-A5B8-42D1D5FA698B}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="23">
+      <c r="A54" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62B229-4090-B542-B20C-DCC1650E46FA}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="46">
+      <c r="A55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7527C7-FA0B-EA4C-A173-BD6CFCC92D13}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>9645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>9663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>4843</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D45B7B-5953-A241-9F4E-CED629B1CAA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143236E7-8D75-B545-BCA2-B2878432CF04}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33"/>
   <cols>
